--- a/EnvNP_Indonesia.xlsx
+++ b/EnvNP_Indonesia.xlsx
@@ -543,7 +543,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/wwf_id/?hl=en']</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/climaterealityina/?hl=en', 'https://www.facebook.com/TCPIndonesia/']</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/humanisfoundation/']</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/p/Ch1Bq1bvx1a/']</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/nasional.jamtani/?locale=tl_PH', 'https://www.instagram.com/p/CsKyYOKBchI/']</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.facebook.com/BOSFoundation/']</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/byebyeplasticbags/?hl=en', 'https://www.instagram.com/byebyeplasticbags.sg/', 'https://www.facebook.com/BBPBSG/', 'https://www.youtube.com/channel/UC9PAs-6cAYTpTCmE974zHBA', 'https://www.youtube.com/watch?v=P8GCjrDWWUM']</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/carbonethics/?hl=en', 'https://www.linkedin.com/company/carbonethics']</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.linkedin.com/company/greeneration-foundation/', 'https://sg.linkedin.com/company/greeneration-foundation?trk=public_profile_experience-item_profile-section-card_subtitle-click', 'https://www.instagram.com/greenerationid/?hl=en']</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/greenpeaceid/?hl=en', 'https://twitter.com/greenpeaceid?lang=en']</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/hutanituid/?hl=en', 'https://www.youtube.com/c/hutanituindonesia', 'https://www.flickr.com/photos/hutanituindonesia/', 'https://www.facebook.com/hutanituindonesia/']</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/lindungihutan/?hl=en', 'https://www.youtube.com/c/LindungiHutan']</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/trashheroindonesia/', 'https://www.linkedin.com/posts/trashhero_today-is-the-first-day-of-our-trash-hero-activity-7133792553060986880-ZdAj']</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.youtube.com/channel/UCiYM4YWblczccuzKRAg_QbQ', 'https://www.instagram.com/tunashijauid/?hl=en', 'https://www.youtube.com/@TunasHijauID', 'https://twitter.com/tunashijauid?lang=en', 'https://www.instagram.com/reel/CzijRVXyCcp/']</t>
         </is>
       </c>
     </row>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/xsproject/?hl=en', 'https://www.youtube.com/channel/UCvFIQiPVy1BbIuxQ9LAh03A', 'https://www.facebook.com/xsproject.official/']</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/ypbbbandung/?hl=en', 'https://www.facebook.com/ypbb.bandung/', 'https://twitter.com/ypbbbdg?lang=en', 'https://www.instagram.com/tokoorganisypbb/']</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https://www.instagram.com/eco.learningcamp/?hl=en']</t>
         </is>
       </c>
     </row>
